--- a/1-nas/Relatorio/grafico.xlsx
+++ b/1-nas/Relatorio/grafico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win7\Documents\U Minho\MEI\CPD\AP\Aulas\3-nas\Relatorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win7\Documents\U Minho\MEI\CPD\ESC\Aulas\1-nas\Relatorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -650,6 +650,33 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,21 +689,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,18 +700,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,120 +1013,120 @@
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="55" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="57"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="56"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="49" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="50"/>
+      <c r="P3" s="59"/>
       <c r="Q3" s="66" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="67"/>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="49" t="s">
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="50"/>
+      <c r="AB3" s="59"/>
     </row>
     <row r="4" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="53" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="53" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="53" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="53" t="s">
+      <c r="T4" s="53"/>
+      <c r="U4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="54"/>
-      <c r="W4" s="53" t="s">
+      <c r="V4" s="53"/>
+      <c r="W4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="53" t="s">
+      <c r="X4" s="53"/>
+      <c r="Y4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="52"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="61"/>
     </row>
     <row r="5" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -1210,7 +1210,7 @@
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="49" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="22">
@@ -1283,7 +1283,7 @@
       <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="28">
         <v>20.3</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="C8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="34">
         <v>9.36</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="49" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="22">
@@ -1498,7 +1498,7 @@
       <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="28">
         <v>79.27</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="34">
         <v>37.42</v>
       </c>
@@ -1701,112 +1701,112 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="55" t="s">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="57"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="53" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="49" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="58" t="s">
+      <c r="P15" s="59"/>
+      <c r="Q15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="R15" s="59"/>
-      <c r="S15" s="53" t="s">
+      <c r="R15" s="63"/>
+      <c r="S15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="49" t="s">
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="50"/>
+      <c r="Z15" s="59"/>
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="53" t="s">
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="53" t="s">
+      <c r="H16" s="53"/>
+      <c r="I16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="53" t="s">
+      <c r="J16" s="53"/>
+      <c r="K16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="54"/>
-      <c r="M16" s="53" t="s">
+      <c r="L16" s="53"/>
+      <c r="M16" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="54"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="53" t="s">
+      <c r="N16" s="53"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="T16" s="54"/>
-      <c r="U16" s="53" t="s">
+      <c r="T16" s="53"/>
+      <c r="U16" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="V16" s="54"/>
-      <c r="W16" s="53" t="s">
+      <c r="V16" s="53"/>
+      <c r="W16" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="52"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="61"/>
     </row>
     <row r="17" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
@@ -1883,7 +1883,7 @@
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="49" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="22">
@@ -1949,7 +1949,7 @@
       <c r="C19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="28">
         <v>0.8</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="C20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="34">
         <v>0.99</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="49" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="22">
@@ -2143,7 +2143,7 @@
       <c r="C22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="28">
         <v>3.29</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="C23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="34">
         <v>4.2300000000000004</v>
       </c>
@@ -2269,18 +2269,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E14:P14"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="O3:P4"/>
     <mergeCell ref="E3:F4"/>
@@ -2297,15 +2292,32 @@
     <mergeCell ref="AA3:AB4"/>
     <mergeCell ref="Y15:Z16"/>
     <mergeCell ref="O15:P16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:E8">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G8">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -2317,7 +2329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8">
+  <conditionalFormatting sqref="I6:I8">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -2329,7 +2341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I8">
+  <conditionalFormatting sqref="O11">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -2341,7 +2353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
+  <conditionalFormatting sqref="K6:K8">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -2353,7 +2365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K8">
+  <conditionalFormatting sqref="M6:M8">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -2365,7 +2377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M8">
+  <conditionalFormatting sqref="S6:S8">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -2377,7 +2389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S8">
+  <conditionalFormatting sqref="U6:U8">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -2389,7 +2401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U8">
+  <conditionalFormatting sqref="W6:W8">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -2401,7 +2413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6:W8">
+  <conditionalFormatting sqref="Y6:Y8">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -2413,7 +2425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y8">
+  <conditionalFormatting sqref="AA6:AA8">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -2425,7 +2437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA6:AA8">
+  <conditionalFormatting sqref="E18:E20">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -2437,7 +2449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E20">
+  <conditionalFormatting sqref="G18:G20">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2449,7 +2461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G20">
+  <conditionalFormatting sqref="I18:I20">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -2461,7 +2473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
+  <conditionalFormatting sqref="K18:K20">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -2473,7 +2485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K20">
+  <conditionalFormatting sqref="M18:M20">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -2485,7 +2497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M20">
+  <conditionalFormatting sqref="O18:O20">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2497,7 +2509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O20">
+  <conditionalFormatting sqref="Q18:Q20">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2509,7 +2521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:Q20">
+  <conditionalFormatting sqref="S18:S20">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2521,7 +2533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S18:S20">
+  <conditionalFormatting sqref="U18:U20">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2533,7 +2545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U18:U20">
+  <conditionalFormatting sqref="W18:W20">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2545,7 +2557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W18:W20">
+  <conditionalFormatting sqref="Y18:Y20">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2557,7 +2569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y18:Y20">
+  <conditionalFormatting sqref="E9:E11">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2569,7 +2581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E11">
+  <conditionalFormatting sqref="G9:G11">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2581,7 +2593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G11">
+  <conditionalFormatting sqref="I9:I11">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2593,7 +2605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I11">
+  <conditionalFormatting sqref="E21:E23">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2605,19 +2617,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E23">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O21:O23">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21:Y23">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2629,7 +2641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y21:Y23">
+  <conditionalFormatting sqref="S21:S23">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2641,7 +2653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S21:S23">
+  <conditionalFormatting sqref="M21:M23">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2653,7 +2665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M23">
+  <conditionalFormatting sqref="K21:K23">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2665,7 +2677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K23">
+  <conditionalFormatting sqref="I21:I23">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2677,7 +2689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I23">
+  <conditionalFormatting sqref="G21:G23">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2689,7 +2701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G23">
+  <conditionalFormatting sqref="Q21:Q23">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2701,7 +2713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21:Q23">
+  <conditionalFormatting sqref="Q9:Q11">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2713,7 +2725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:Q11">
+  <conditionalFormatting sqref="U21:U23">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2725,7 +2737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U21:U23">
+  <conditionalFormatting sqref="W21:W23">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2737,7 +2749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:W23">
+  <conditionalFormatting sqref="S9:S11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2749,7 +2761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9:S11">
+  <conditionalFormatting sqref="K9:K11">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2761,7 +2773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:K11">
+  <conditionalFormatting sqref="M9:M11">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2773,7 +2785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9:M11">
+  <conditionalFormatting sqref="U9:U11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2785,7 +2797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U11">
+  <conditionalFormatting sqref="W9:W11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2797,7 +2809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W9:W11">
+  <conditionalFormatting sqref="Y9:Y11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2809,7 +2821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y9:Y11">
+  <conditionalFormatting sqref="AA9:AA11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2821,7 +2833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA9:AA11">
+  <conditionalFormatting sqref="Q6:Q8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
